--- a/public/template/template.xlsx
+++ b/public/template/template.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Department Name</t>
+    <t>Bureau/Office Name</t>
   </si>
 </sst>
 </file>
@@ -391,12 +391,12 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>

--- a/public/template/template.xlsx
+++ b/public/template/template.xlsx
@@ -30,9 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Bureau/Office Name</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,9 +421,12 @@
     <col min="25" max="25" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
